--- a/final_data_pipeline/output/311514longform_elec_options_nowhp.xlsx
+++ b/final_data_pipeline/output/311514longform_elec_options_nowhp.xlsx
@@ -570,7 +570,7 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="J2">
         <v>8000</v>
@@ -585,10 +585,10 @@
         <v>656272.769206149</v>
       </c>
       <c r="N2">
-        <v>1.638125</v>
+        <v>1.475542118432027</v>
       </c>
       <c r="O2">
-        <v>1.764318181818182</v>
+        <v>1.575</v>
       </c>
       <c r="P2">
         <v>82.03409615076862</v>
@@ -623,7 +623,7 @@
         <v>38</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="J3">
         <v>8000</v>
@@ -638,10 +638,10 @@
         <v>348980.4102457899</v>
       </c>
       <c r="N3">
-        <v>1.638125</v>
+        <v>1.516977491961415</v>
       </c>
       <c r="O3">
-        <v>1.764318181818182</v>
+        <v>1.622926829268293</v>
       </c>
       <c r="P3">
         <v>43.62255128072373</v>
@@ -676,7 +676,7 @@
         <v>38</v>
       </c>
       <c r="I4">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="J4">
         <v>8000</v>
@@ -691,10 +691,10 @@
         <v>914172.9659509172</v>
       </c>
       <c r="N4">
-        <v>1.638125</v>
+        <v>1.673218141204726</v>
       </c>
       <c r="O4">
-        <v>1.764318181818182</v>
+        <v>1.805631235675374</v>
       </c>
       <c r="P4">
         <v>114.2716207438646</v>
@@ -835,7 +835,7 @@
         <v>38</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="J7">
         <v>8000</v>
@@ -850,10 +850,10 @@
         <v>718127.0651140461</v>
       </c>
       <c r="N7">
-        <v>1.638125</v>
+        <v>1.673218141204726</v>
       </c>
       <c r="O7">
-        <v>1.764318181818182</v>
+        <v>1.805631235675374</v>
       </c>
       <c r="P7">
         <v>89.76588313925576</v>
@@ -941,7 +941,7 @@
         <v>38</v>
       </c>
       <c r="I9">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="J9">
         <v>8000</v>
@@ -956,10 +956,10 @@
         <v>990488.0964708321</v>
       </c>
       <c r="N9">
-        <v>1.638125</v>
+        <v>1.673218141204726</v>
       </c>
       <c r="O9">
-        <v>1.764318181818182</v>
+        <v>1.805631235675374</v>
       </c>
       <c r="P9">
         <v>123.811012058854</v>
@@ -994,7 +994,7 @@
         <v>38</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="J10">
         <v>8000</v>
@@ -1009,10 +1009,10 @@
         <v>621811.3697766148</v>
       </c>
       <c r="N10">
-        <v>1.638125</v>
+        <v>1.516977491961415</v>
       </c>
       <c r="O10">
-        <v>1.764318181818182</v>
+        <v>1.622926829268293</v>
       </c>
       <c r="P10">
         <v>77.72642122207685</v>
@@ -1153,7 +1153,7 @@
         <v>38</v>
       </c>
       <c r="I13">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="J13">
         <v>8000</v>
@@ -1168,10 +1168,10 @@
         <v>745843.7903020834</v>
       </c>
       <c r="N13">
-        <v>1.638125</v>
+        <v>1.720452734369724</v>
       </c>
       <c r="O13">
-        <v>1.764318181818182</v>
+        <v>1.861492917301914</v>
       </c>
       <c r="P13">
         <v>93.23047378776042</v>
@@ -1259,7 +1259,7 @@
         <v>38</v>
       </c>
       <c r="I15">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="J15">
         <v>8000</v>
@@ -1274,10 +1274,10 @@
         <v>360133.6734789935</v>
       </c>
       <c r="N15">
-        <v>1.638125</v>
+        <v>1.720452734369724</v>
       </c>
       <c r="O15">
-        <v>1.764318181818182</v>
+        <v>1.861492917301914</v>
       </c>
       <c r="P15">
         <v>45.01670918487419</v>
